--- a/QLGARA/BaoCaoDoanhSo.xlsx
+++ b/QLGARA/BaoCaoDoanhSo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nhập môn CNPM\Thực hành\DoAN\DoAnNMCNPM\QLGARA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0346B9EA-62C4-4093-9065-3D98D31C7EF2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FEE1748-2B04-4890-B79E-898BF2D7C59B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795" xr2:uid="{A0B7BFDC-B2F7-47C0-A55E-CCF013E0AE3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795" xr2:uid="{E11DE398-60A5-4F7B-9700-1BCE0A945CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>BÁO CÁO DOANH SỐ</t>
   </si>
@@ -48,7 +48,19 @@
     <t>Tỉ lệ</t>
   </si>
   <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
     <t>Ford</t>
+  </si>
+  <si>
+    <t>Mecerdes-Benz</t>
   </si>
 </sst>
 </file>
@@ -398,17 +410,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA60F72A-43A5-4581-BCE1-F81557B85CC6}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5764EAA-E231-4DDB-8310-3F9D07AD3463}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -429,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>20600000</v>
+        <v>57700000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,10 +466,66 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>20600000</v>
+        <v>5200000</v>
       </c>
       <c r="D5">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>1</v>
+      </c>
+      <c r="C6">
+        <v>8100000</v>
+      </c>
+      <c r="D6">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10300000</v>
+      </c>
+      <c r="D7">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>24800000</v>
+      </c>
+      <c r="D8">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>9300000</v>
+      </c>
+      <c r="D9">
+        <v>0.16666666666666699</v>
       </c>
     </row>
   </sheetData>
